--- a/biology/Médecine/Isidore_Valleix/Isidore_Valleix.xlsx
+++ b/biology/Médecine/Isidore_Valleix/Isidore_Valleix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François-Louis-Isidore Valleix, né le 14 janvier 1807 à Toulouse, mort le 12 juillet 1855 à Paris, fut un pédiatre français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Toulouse, il devient externe en médecine en 1829, interne en 1831 avant de passer en 1835 sa thèse de doctorat : L'asphyxie lente chez les enfants nouveau-nés, et principalement de celle qui produit la maladie connue sous les noms d'endurcissement, induration, œdème du tissu cellullaire, sclérime, sclérémie, etc., après ses recherches à l'hospice des enfants trouvés[1]. Alors qu'il est encore étudiant, il écrit un poème en l'honneur du Général Foy mort en 1825[2].
-En 1836, il devient médecin du Bureau Central puis médecin des hôpitaux de Paris. Il exerce alors à l'hôpital Sainte-Marguerite et en tant que professeur à la Pitié-Salpêtrière[3]. Il devient également membre de la Société Anatomique de Paris avant de devenir titulaire, puis honoraire, vice-secrétaire, secrétaire et enfin membre du Comité en 1835 et 1836[1].
-Il décéda en juillet 1855 de la diphtérie, contractée via un enfant malade[2].
-La rue Isidore-Valleix porte son nom à Toulouse (31500)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Toulouse, il devient externe en médecine en 1829, interne en 1831 avant de passer en 1835 sa thèse de doctorat : L'asphyxie lente chez les enfants nouveau-nés, et principalement de celle qui produit la maladie connue sous les noms d'endurcissement, induration, œdème du tissu cellullaire, sclérime, sclérémie, etc., après ses recherches à l'hospice des enfants trouvés. Alors qu'il est encore étudiant, il écrit un poème en l'honneur du Général Foy mort en 1825.
+En 1836, il devient médecin du Bureau Central puis médecin des hôpitaux de Paris. Il exerce alors à l'hôpital Sainte-Marguerite et en tant que professeur à la Pitié-Salpêtrière. Il devient également membre de la Société Anatomique de Paris avant de devenir titulaire, puis honoraire, vice-secrétaire, secrétaire et enfin membre du Comité en 1835 et 1836.
+Il décéda en juillet 1855 de la diphtérie, contractée via un enfant malade.
+La rue Isidore-Valleix porte son nom à Toulouse (31500).
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Clinique des maladies des enfants nouveau-nés, 1838
 Traité des névralgies, 1841
